--- a/Code/Results/Cases/Case_0_92/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_92/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.032025604795773</v>
+        <v>3.609176140046208</v>
       </c>
       <c r="D2">
-        <v>4.495065205350157</v>
+        <v>4.52093789796921</v>
       </c>
       <c r="E2">
-        <v>10.42651431433286</v>
+        <v>10.95258244225863</v>
       </c>
       <c r="F2">
-        <v>16.32501846266166</v>
+        <v>22.13368618708452</v>
       </c>
       <c r="G2">
-        <v>2.065405845966702</v>
+        <v>3.616665401468534</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>12.46670306296736</v>
+        <v>18.63086432937966</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>21.05299949113697</v>
+        <v>13.20513461962098</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.87819426836582</v>
+        <v>15.18509397210819</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>12.58107771000514</v>
+        <v>19.82095810330227</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.749649625266367</v>
+        <v>3.47692919467207</v>
       </c>
       <c r="D3">
-        <v>4.337245806984269</v>
+        <v>4.466589957795994</v>
       </c>
       <c r="E3">
-        <v>9.9159661255483</v>
+        <v>10.91052669620021</v>
       </c>
       <c r="F3">
-        <v>15.94495234435099</v>
+        <v>22.20200050692867</v>
       </c>
       <c r="G3">
-        <v>2.071194514708321</v>
+        <v>3.618799703567573</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>12.32802622678056</v>
+        <v>18.71246013303271</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>19.75953511898005</v>
+        <v>12.58541907581515</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.65290805934244</v>
+        <v>14.84167862325303</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.56617215910287</v>
+        <v>19.93336213822134</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.567436574362182</v>
+        <v>3.392475785903279</v>
       </c>
       <c r="D4">
-        <v>4.237339588239497</v>
+        <v>4.432699181581706</v>
       </c>
       <c r="E4">
-        <v>9.607627870978398</v>
+        <v>10.89011222789852</v>
       </c>
       <c r="F4">
-        <v>15.73464860991761</v>
+        <v>22.25280279918085</v>
       </c>
       <c r="G4">
-        <v>2.074848453777454</v>
+        <v>3.620178444997235</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>12.2620334994971</v>
+        <v>18.76889809413721</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>18.92189069905468</v>
+        <v>12.18873638375351</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.85975325978862</v>
+        <v>14.62933030056536</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.57923941822034</v>
+        <v>20.00901454945488</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.490988708383465</v>
+        <v>3.35727459072193</v>
       </c>
       <c r="D5">
-        <v>4.19591087974756</v>
+        <v>4.418766760729616</v>
       </c>
       <c r="E5">
-        <v>9.483435888771709</v>
+        <v>10.88315525902816</v>
       </c>
       <c r="F5">
-        <v>15.65469602148655</v>
+        <v>22.27571836273161</v>
       </c>
       <c r="G5">
-        <v>2.076363326657903</v>
+        <v>3.62075751658453</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>12.23978778117124</v>
+        <v>18.7934818957683</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>18.56965769962678</v>
+        <v>12.02319733848939</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.52622877187903</v>
+        <v>14.54254434597655</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.58984940481542</v>
+        <v>20.04150331975277</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.47816298958768</v>
+        <v>3.351383022612468</v>
       </c>
       <c r="D6">
-        <v>4.188989668497943</v>
+        <v>4.416446220992124</v>
       </c>
       <c r="E6">
-        <v>9.462907160753016</v>
+        <v>10.88208233897054</v>
       </c>
       <c r="F6">
-        <v>15.64176500082313</v>
+        <v>22.27965671890874</v>
       </c>
       <c r="G6">
-        <v>2.076616454798232</v>
+        <v>3.620854712866178</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>12.23636922851465</v>
+        <v>18.79765947665695</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>18.51051388422325</v>
+        <v>11.99548071762194</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.47022379381935</v>
+        <v>14.52812202450586</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.5919214051353</v>
+        <v>20.04699804363744</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.566414416401691</v>
+        <v>3.392004186192727</v>
       </c>
       <c r="D7">
-        <v>4.236783710125662</v>
+        <v>4.432511764224956</v>
       </c>
       <c r="E7">
-        <v>9.605946837782865</v>
+        <v>10.89001288779983</v>
       </c>
       <c r="F7">
-        <v>15.73354715879599</v>
+        <v>22.25310290452247</v>
       </c>
       <c r="G7">
-        <v>2.074868778136901</v>
+        <v>3.620186184749131</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>12.26171490914687</v>
+        <v>18.76922323468041</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>18.91718436680921</v>
+        <v>12.18651934879963</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.85529701178254</v>
+        <v>14.62816073157963</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.57936151449693</v>
+        <v>20.00944599567703</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.936509178762185</v>
+        <v>3.564270806748548</v>
       </c>
       <c r="D8">
-        <v>4.441294789068271</v>
+        <v>4.502312393848196</v>
       </c>
       <c r="E8">
-        <v>10.24950387415029</v>
+        <v>10.93696136210141</v>
       </c>
       <c r="F8">
-        <v>16.18916537218754</v>
+        <v>22.1553946235533</v>
       </c>
       <c r="G8">
-        <v>2.067381587005646</v>
+        <v>3.617387172833915</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>12.41481533429706</v>
+        <v>18.65767793175987</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>20.61604769887352</v>
+        <v>12.99491300913654</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.46415901877364</v>
+        <v>15.06706563340304</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>12.57114769068856</v>
+        <v>19.85833243312551</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.591393189597252</v>
+        <v>3.875042362809257</v>
       </c>
       <c r="D9">
-        <v>4.817017283265197</v>
+        <v>4.634657744055766</v>
       </c>
       <c r="E9">
-        <v>11.55766202354868</v>
+        <v>11.07170826951699</v>
       </c>
       <c r="F9">
-        <v>17.26634792101141</v>
+        <v>22.03463720911965</v>
       </c>
       <c r="G9">
-        <v>2.053451518326186</v>
+        <v>3.612437464878757</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.87358494539253</v>
+        <v>18.48960688361884</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.60222985878989</v>
+        <v>14.44528208070203</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.29781727898125</v>
+        <v>15.91079863174562</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.74422815258718</v>
+        <v>19.6150450764377</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.028732623059052</v>
+        <v>4.085476158013946</v>
       </c>
       <c r="D10">
-        <v>5.075967507466916</v>
+        <v>4.728608158024298</v>
       </c>
       <c r="E10">
-        <v>12.80227392962894</v>
+        <v>11.19623530245869</v>
       </c>
       <c r="F10">
-        <v>18.16921917481623</v>
+        <v>21.9898088591356</v>
       </c>
       <c r="G10">
-        <v>2.043618048815864</v>
+        <v>3.609126004907723</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>13.31473835385395</v>
+        <v>18.39751520313037</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.58648348722403</v>
+        <v>15.42149140586387</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.18832026849138</v>
+        <v>16.51386284995552</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.00307288024325</v>
+        <v>19.46917385021145</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.21815575413697</v>
+        <v>4.17708821548979</v>
       </c>
       <c r="D11">
-        <v>5.189797010470749</v>
+        <v>4.770530184677735</v>
       </c>
       <c r="E11">
-        <v>13.35365648042414</v>
+        <v>11.25827038391169</v>
       </c>
       <c r="F11">
-        <v>18.6037474468152</v>
+        <v>21.97906867380579</v>
       </c>
       <c r="G11">
-        <v>2.03921773767697</v>
+        <v>3.607689361767705</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>13.5392185401571</v>
+        <v>18.36253625933962</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>26.44414574919785</v>
+        <v>15.84506994617534</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24.00799636421796</v>
+        <v>16.78330993416702</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.15248074603137</v>
+        <v>19.4100640524269</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.288518743346347</v>
+        <v>4.211171414985968</v>
       </c>
       <c r="D12">
-        <v>5.232313976146668</v>
+        <v>4.786279058767311</v>
       </c>
       <c r="E12">
-        <v>13.56044651255041</v>
+        <v>11.28251917973613</v>
       </c>
       <c r="F12">
-        <v>18.77167260411323</v>
+        <v>21.97639747350581</v>
       </c>
       <c r="G12">
-        <v>2.037560703637652</v>
+        <v>3.607155315334328</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13.62771854063029</v>
+        <v>18.35029245713132</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>26.76250839234081</v>
+        <v>16.00244736039725</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>24.31269853319092</v>
+        <v>16.8845443722353</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.21382710882579</v>
+        <v>19.38873213778465</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.273425559770332</v>
+        <v>4.203858280522621</v>
       </c>
       <c r="D13">
-        <v>5.223183563291517</v>
+        <v>4.782892999554241</v>
       </c>
       <c r="E13">
-        <v>13.51599766019743</v>
+        <v>11.27726337685845</v>
       </c>
       <c r="F13">
-        <v>18.73535731332217</v>
+        <v>21.97691057335082</v>
       </c>
       <c r="G13">
-        <v>2.037917183974026</v>
+        <v>3.607269888784462</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13.60850206277204</v>
+        <v>18.35288469802022</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>26.6942276563713</v>
+        <v>15.96868878891262</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>24.24732677376287</v>
+        <v>16.86277873198434</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.20039980247756</v>
+        <v>19.39327942405875</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.223971940093782</v>
+        <v>4.17990453830257</v>
       </c>
       <c r="D14">
-        <v>5.19330677231102</v>
+        <v>4.771828429601207</v>
       </c>
       <c r="E14">
-        <v>13.37070866389734</v>
+        <v>11.26025027273759</v>
       </c>
       <c r="F14">
-        <v>18.61749527768701</v>
+        <v>21.97882089750241</v>
       </c>
       <c r="G14">
-        <v>2.039081234125177</v>
+        <v>3.607645225744074</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13.54642909173469</v>
+        <v>18.3615088308053</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>26.47046586360223</v>
+        <v>15.85807843541726</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.0331778068121</v>
+        <v>16.79165509804086</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.15743102480674</v>
+        <v>19.40828793192505</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.193502214362118</v>
+        <v>4.165152511127319</v>
       </c>
       <c r="D15">
-        <v>5.174929380551498</v>
+        <v>4.765034388493846</v>
       </c>
       <c r="E15">
-        <v>13.28145761167216</v>
+        <v>11.249927350177</v>
       </c>
       <c r="F15">
-        <v>18.54574012402551</v>
+        <v>21.98017301778078</v>
       </c>
       <c r="G15">
-        <v>2.039795417338121</v>
+        <v>3.607876428518952</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>13.50886457365274</v>
+        <v>18.36692206838568</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26.33257160645903</v>
+        <v>15.78993079744176</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>23.90126755809437</v>
+        <v>16.7479829876963</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.13173843838285</v>
+        <v>19.41761831523294</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.016161821267985</v>
+        <v>4.079404816981596</v>
       </c>
       <c r="D16">
-        <v>5.068447077544495</v>
+        <v>4.725851276301105</v>
       </c>
       <c r="E16">
-        <v>12.76595189529797</v>
+        <v>11.1922881469028</v>
       </c>
       <c r="F16">
-        <v>18.14129690813975</v>
+        <v>21.99070569425173</v>
       </c>
       <c r="G16">
-        <v>2.043906985510503</v>
+        <v>3.609221292163124</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13.30055339298835</v>
+        <v>18.39994095880261</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.52953232074936</v>
+        <v>15.39339031189325</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.13395000582793</v>
+        <v>16.49614707310047</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.99396485556842</v>
+        <v>19.47318346976573</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.904930145939178</v>
+        <v>4.025734828496073</v>
       </c>
       <c r="D17">
-        <v>5.002093861049013</v>
+        <v>4.701598312135161</v>
       </c>
       <c r="E17">
-        <v>12.44599529764743</v>
+        <v>11.15829660716713</v>
       </c>
       <c r="F17">
-        <v>17.8992492974157</v>
+        <v>21.99964544778241</v>
       </c>
       <c r="G17">
-        <v>2.04644715031469</v>
+        <v>3.610064151843161</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.17891213744865</v>
+        <v>18.42197347212308</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>25.02540621310742</v>
+        <v>15.14481687744902</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.6529705530635</v>
+        <v>16.34033085465072</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.91771576757015</v>
+        <v>19.50913398911797</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.84005573831508</v>
+        <v>3.994478742338644</v>
       </c>
       <c r="D18">
-        <v>4.963556515970915</v>
+        <v>4.687572296832509</v>
       </c>
       <c r="E18">
-        <v>12.26056328816881</v>
+        <v>11.13925381095878</v>
       </c>
       <c r="F18">
-        <v>17.76227358012576</v>
+        <v>22.00569551586355</v>
       </c>
       <c r="G18">
-        <v>2.04791513455918</v>
+        <v>3.610555511332386</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.11118390877124</v>
+        <v>18.43529633633969</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>24.73120806421666</v>
+        <v>14.99991757432527</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.37252141201497</v>
+        <v>16.25025454189005</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.87682779210354</v>
+        <v>19.53049341099513</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.817936327904821</v>
+        <v>3.983830124709621</v>
       </c>
       <c r="D19">
-        <v>4.950445000844582</v>
+        <v>4.682810485034883</v>
       </c>
       <c r="E19">
-        <v>12.19753515284693</v>
+        <v>11.13289402515398</v>
       </c>
       <c r="F19">
-        <v>17.7162827110437</v>
+        <v>22.00789967781164</v>
       </c>
       <c r="G19">
-        <v>2.048413398010053</v>
+        <v>3.610723007010128</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.08863400443392</v>
+        <v>18.43991868366058</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.63086829097793</v>
+        <v>14.9505287756007</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.27690998659886</v>
+        <v>16.21968115719621</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.86348664944882</v>
+        <v>19.53784212518951</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.91686376750912</v>
+        <v>4.031488221808456</v>
       </c>
       <c r="D20">
-        <v>5.009195986529632</v>
+        <v>4.704188047530724</v>
       </c>
       <c r="E20">
-        <v>12.48019945654998</v>
+        <v>11.16186258136381</v>
       </c>
       <c r="F20">
-        <v>17.9247838022841</v>
+        <v>21.99859974298326</v>
       </c>
       <c r="G20">
-        <v>2.046176034847874</v>
+        <v>3.609973748511439</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.19162901057142</v>
+        <v>18.41956070766695</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>25.07950958101121</v>
+        <v>15.17147790273918</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.70456443811009</v>
+        <v>16.35696556094975</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.92552373668845</v>
+        <v>19.50523637940279</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.23853474399403</v>
+        <v>4.186956962087285</v>
       </c>
       <c r="D21">
-        <v>5.202098381125236</v>
+        <v>4.775081851587225</v>
       </c>
       <c r="E21">
-        <v>13.41343694789769</v>
+        <v>11.26522702467613</v>
       </c>
       <c r="F21">
-        <v>18.65202285335246</v>
+        <v>21.97822185021489</v>
       </c>
       <c r="G21">
-        <v>2.038739083118251</v>
+        <v>3.607534709760745</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>13.56456608493732</v>
+        <v>18.35894846151973</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.53636375665546</v>
+        <v>15.89064993469334</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.09623210458661</v>
+        <v>16.81256825869584</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.16992097344853</v>
+        <v>19.40385095218583</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.440798249812167</v>
+        <v>4.285013086223886</v>
       </c>
       <c r="D22">
-        <v>5.324739728246956</v>
+        <v>4.820676315165307</v>
       </c>
       <c r="E22">
-        <v>14.01173743289883</v>
+        <v>11.33718720836945</v>
       </c>
       <c r="F22">
-        <v>19.14699309229987</v>
+        <v>21.97304250990285</v>
       </c>
       <c r="G22">
-        <v>2.033931983976557</v>
+        <v>3.605998799259023</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.82869417994564</v>
+        <v>18.32517833308423</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27.45114092031451</v>
+        <v>16.3430270651243</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>24.97265117988382</v>
+        <v>17.10563219275263</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.35752758606479</v>
+        <v>19.34372402363473</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.333573782787397</v>
+        <v>4.233008528259357</v>
       </c>
       <c r="D23">
-        <v>5.259602440469664</v>
+        <v>4.796412071292131</v>
       </c>
       <c r="E23">
-        <v>13.69343111669579</v>
+        <v>11.29838383949758</v>
       </c>
       <c r="F23">
-        <v>18.88103107022787</v>
+        <v>21.97505991871353</v>
       </c>
       <c r="G23">
-        <v>2.036493171294433</v>
+        <v>3.606813240588514</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>13.68583748558144</v>
+        <v>18.34266497066536</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>26.96630508575396</v>
+        <v>16.10322039633012</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>24.5078817369893</v>
+        <v>16.94967836298325</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.25478257348851</v>
+        <v>19.37525051458621</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.911471461097078</v>
+        <v>4.028888358880152</v>
       </c>
       <c r="D24">
-        <v>5.005986329009388</v>
+        <v>4.703017484961228</v>
       </c>
       <c r="E24">
-        <v>12.46474038973344</v>
+        <v>11.16024884758593</v>
       </c>
       <c r="F24">
-        <v>17.91323285679568</v>
+        <v>21.99906967059261</v>
       </c>
       <c r="G24">
-        <v>2.046298582356527</v>
+        <v>3.61001459870829</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13.18587284990341</v>
+        <v>18.42064947538222</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>25.0550630617822</v>
+        <v>15.15943064938044</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.68125108438912</v>
+        <v>16.34944654619854</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.92198458620512</v>
+        <v>19.50699633702373</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.421899571029018</v>
+        <v>3.794022898273671</v>
       </c>
       <c r="D25">
-        <v>4.718273361848784</v>
+        <v>4.599394744720117</v>
       </c>
       <c r="E25">
-        <v>11.19242851908576</v>
+        <v>11.03072672288288</v>
       </c>
       <c r="F25">
-        <v>16.95525454004357</v>
+        <v>22.05964306670847</v>
       </c>
       <c r="G25">
-        <v>2.057145142661093</v>
+        <v>3.613719144873194</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.73165572085963</v>
+        <v>18.52959699629218</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.83133643932826</v>
+        <v>14.0681777750676</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.56521480281209</v>
+        <v>15.68505545293823</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.67539116479565</v>
+        <v>19.67512644303569</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_92/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_92/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.609176140046208</v>
+        <v>5.03202560479568</v>
       </c>
       <c r="D2">
-        <v>4.52093789796921</v>
+        <v>4.495065205350031</v>
       </c>
       <c r="E2">
-        <v>10.95258244225863</v>
+        <v>10.42651431433284</v>
       </c>
       <c r="F2">
-        <v>22.13368618708452</v>
+        <v>16.32501846266154</v>
       </c>
       <c r="G2">
-        <v>3.616665401468534</v>
+        <v>2.0654058459667</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>18.63086432937966</v>
+        <v>12.46670306296722</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.20513461962098</v>
+        <v>21.05299949113705</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.18509397210819</v>
+        <v>18.87819426836586</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.82095810330227</v>
+        <v>12.58107771000498</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.47692919467207</v>
+        <v>4.749649625266675</v>
       </c>
       <c r="D3">
-        <v>4.466589957795994</v>
+        <v>4.337245806984275</v>
       </c>
       <c r="E3">
-        <v>10.91052669620021</v>
+        <v>9.915966125548339</v>
       </c>
       <c r="F3">
-        <v>22.20200050692867</v>
+        <v>15.94495234435072</v>
       </c>
       <c r="G3">
-        <v>3.618799703567573</v>
+        <v>2.071194514708188</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>18.71246013303271</v>
+        <v>12.32802622678025</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.58541907581515</v>
+        <v>19.75953511898014</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.84167862325303</v>
+        <v>17.65290805934253</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.93336213822134</v>
+        <v>12.5661721591026</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.392475785903279</v>
+        <v>4.567436574362168</v>
       </c>
       <c r="D4">
-        <v>4.432699181581706</v>
+        <v>4.237339588239611</v>
       </c>
       <c r="E4">
-        <v>10.89011222789852</v>
+        <v>9.607627870978389</v>
       </c>
       <c r="F4">
-        <v>22.25280279918085</v>
+        <v>15.73464860991756</v>
       </c>
       <c r="G4">
-        <v>3.620178444997235</v>
+        <v>2.074848453777454</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>18.76889809413721</v>
+        <v>12.26203349949708</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.18873638375351</v>
+        <v>18.92189069905468</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.62933030056536</v>
+        <v>16.85975325978862</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>20.00901454945488</v>
+        <v>12.57923941822033</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.35727459072193</v>
+        <v>4.490988708383396</v>
       </c>
       <c r="D5">
-        <v>4.418766760729616</v>
+        <v>4.195910879747728</v>
       </c>
       <c r="E5">
-        <v>10.88315525902816</v>
+        <v>9.483435888771721</v>
       </c>
       <c r="F5">
-        <v>22.27571836273161</v>
+        <v>15.65469602148644</v>
       </c>
       <c r="G5">
-        <v>3.62075751658453</v>
+        <v>2.076363326657904</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>18.7934818957683</v>
+        <v>12.23978778117124</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.02319733848939</v>
+        <v>18.56965769962681</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.54254434597655</v>
+        <v>16.52622877187905</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>20.04150331975277</v>
+        <v>12.58984940481537</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.351383022612468</v>
+        <v>4.478162989587528</v>
       </c>
       <c r="D6">
-        <v>4.416446220992124</v>
+        <v>4.188989668497931</v>
       </c>
       <c r="E6">
-        <v>10.88208233897054</v>
+        <v>9.462907160753026</v>
       </c>
       <c r="F6">
-        <v>22.27965671890874</v>
+        <v>15.64176500082316</v>
       </c>
       <c r="G6">
-        <v>3.620854712866178</v>
+        <v>2.076616454798232</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>18.79765947665695</v>
+        <v>12.23636922851472</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.99548071762194</v>
+        <v>18.51051388422323</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.52812202450586</v>
+        <v>16.47022379381933</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>20.04699804363744</v>
+        <v>12.59192140513534</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.392004186192727</v>
+        <v>4.566414416401622</v>
       </c>
       <c r="D7">
-        <v>4.432511764224956</v>
+        <v>4.23678371012565</v>
       </c>
       <c r="E7">
-        <v>10.89001288779983</v>
+        <v>9.605946837782827</v>
       </c>
       <c r="F7">
-        <v>22.25310290452247</v>
+        <v>15.7335471587961</v>
       </c>
       <c r="G7">
-        <v>3.620186184749131</v>
+        <v>2.074868778137034</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>18.76922323468041</v>
+        <v>12.26171490914696</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.18651934879963</v>
+        <v>18.91718436680921</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.62816073157963</v>
+        <v>16.85529701178254</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>20.00944599567703</v>
+        <v>12.57936151449701</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.564270806748548</v>
+        <v>4.936509178762213</v>
       </c>
       <c r="D8">
-        <v>4.502312393848196</v>
+        <v>4.441294789068369</v>
       </c>
       <c r="E8">
-        <v>10.93696136210141</v>
+        <v>10.24950387415028</v>
       </c>
       <c r="F8">
-        <v>22.1553946235533</v>
+        <v>16.18916537218743</v>
       </c>
       <c r="G8">
-        <v>3.617387172833915</v>
+        <v>2.067381587005646</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>18.65767793175987</v>
+        <v>12.41481533429698</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.99491300913654</v>
+        <v>20.61604769887355</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.06706563340304</v>
+        <v>18.46415901877369</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.85833243312551</v>
+        <v>12.57114769068848</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.875042362809257</v>
+        <v>5.591393189597134</v>
       </c>
       <c r="D9">
-        <v>4.634657744055766</v>
+        <v>4.817017283265284</v>
       </c>
       <c r="E9">
-        <v>11.07170826951699</v>
+        <v>11.55766202354866</v>
       </c>
       <c r="F9">
-        <v>22.03463720911965</v>
+        <v>17.26634792101131</v>
       </c>
       <c r="G9">
-        <v>3.612437464878757</v>
+        <v>2.053451518326186</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>18.48960688361884</v>
+        <v>12.8735849453925</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.44528208070203</v>
+        <v>23.60222985878991</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.91079863174562</v>
+        <v>21.29781727898127</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.6150450764377</v>
+        <v>12.74422815258712</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.085476158013946</v>
+        <v>6.028732623059052</v>
       </c>
       <c r="D10">
-        <v>4.728608158024298</v>
+        <v>5.075967507466954</v>
       </c>
       <c r="E10">
-        <v>11.19623530245869</v>
+        <v>12.80227392962897</v>
       </c>
       <c r="F10">
-        <v>21.9898088591356</v>
+        <v>18.16921917481617</v>
       </c>
       <c r="G10">
-        <v>3.609126004907723</v>
+        <v>2.043618048815864</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>18.39751520313037</v>
+        <v>13.31473835385392</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.42149140586387</v>
+        <v>25.58648348722403</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.51386284995552</v>
+        <v>23.18832026849137</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.46917385021145</v>
+        <v>13.00307288024322</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.17708821548979</v>
+        <v>6.21815575413687</v>
       </c>
       <c r="D11">
-        <v>4.770530184677735</v>
+        <v>5.189797010470833</v>
       </c>
       <c r="E11">
-        <v>11.25827038391169</v>
+        <v>13.35365648042414</v>
       </c>
       <c r="F11">
-        <v>21.97906867380579</v>
+        <v>18.60374744681523</v>
       </c>
       <c r="G11">
-        <v>3.607689361767705</v>
+        <v>2.039217737676835</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>18.36253625933962</v>
+        <v>13.53921854015714</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.84506994617534</v>
+        <v>26.44414574919783</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.78330993416702</v>
+        <v>24.00799636421796</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.4100640524269</v>
+        <v>13.15248074603143</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.211171414985968</v>
+        <v>6.288518743346279</v>
       </c>
       <c r="D12">
-        <v>4.786279058767311</v>
+        <v>5.232313976146644</v>
       </c>
       <c r="E12">
-        <v>11.28251917973613</v>
+        <v>13.56044651255038</v>
       </c>
       <c r="F12">
-        <v>21.97639747350581</v>
+        <v>18.77167260411316</v>
       </c>
       <c r="G12">
-        <v>3.607155315334328</v>
+        <v>2.037560703637786</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.35029245713132</v>
+        <v>13.6277185406302</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.00244736039725</v>
+        <v>26.76250839234088</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>16.8845443722353</v>
+        <v>24.31269853319097</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.38873213778465</v>
+        <v>13.2138271088257</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.203858280522621</v>
+        <v>6.273425559770223</v>
       </c>
       <c r="D13">
-        <v>4.782892999554241</v>
+        <v>5.223183563291486</v>
       </c>
       <c r="E13">
-        <v>11.27726337685845</v>
+        <v>13.51599766019738</v>
       </c>
       <c r="F13">
-        <v>21.97691057335082</v>
+        <v>18.73535731332214</v>
       </c>
       <c r="G13">
-        <v>3.607269888784462</v>
+        <v>2.037917183973893</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>18.35288469802022</v>
+        <v>13.60850206277203</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.96868878891262</v>
+        <v>26.69422765637132</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.86277873198434</v>
+        <v>24.24732677376285</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.39327942405875</v>
+        <v>13.20039980247753</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.17990453830257</v>
+        <v>6.223971940093875</v>
       </c>
       <c r="D14">
-        <v>4.771828429601207</v>
+        <v>5.193306772311116</v>
       </c>
       <c r="E14">
-        <v>11.26025027273759</v>
+        <v>13.37070866389732</v>
       </c>
       <c r="F14">
-        <v>21.97882089750241</v>
+        <v>18.61749527768699</v>
       </c>
       <c r="G14">
-        <v>3.607645225744074</v>
+        <v>2.039081234125042</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>18.3615088308053</v>
+        <v>13.54642909173462</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.85807843541726</v>
+        <v>26.47046586360228</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.79165509804086</v>
+        <v>24.03317780681211</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.40828793192505</v>
+        <v>13.15743102480668</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.165152511127319</v>
+        <v>6.193502214362187</v>
       </c>
       <c r="D15">
-        <v>4.765034388493846</v>
+        <v>5.17492938055155</v>
       </c>
       <c r="E15">
-        <v>11.249927350177</v>
+        <v>13.28145761167216</v>
       </c>
       <c r="F15">
-        <v>21.98017301778078</v>
+        <v>18.54574012402547</v>
       </c>
       <c r="G15">
-        <v>3.607876428518952</v>
+        <v>2.039795417338123</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>18.36692206838568</v>
+        <v>13.5088645736527</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.78993079744176</v>
+        <v>26.33257160645907</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.7479829876963</v>
+        <v>23.90126755809439</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.41761831523294</v>
+        <v>13.13173843838282</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.079404816981596</v>
+        <v>6.016161821268</v>
       </c>
       <c r="D16">
-        <v>4.725851276301105</v>
+        <v>5.068447077544425</v>
       </c>
       <c r="E16">
-        <v>11.1922881469028</v>
+        <v>12.76595189529801</v>
       </c>
       <c r="F16">
-        <v>21.99070569425173</v>
+        <v>18.14129690813979</v>
       </c>
       <c r="G16">
-        <v>3.609221292163124</v>
+        <v>2.043906985510637</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>18.39994095880261</v>
+        <v>13.30055339298835</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.39339031189325</v>
+        <v>25.52953232074937</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.49614707310047</v>
+        <v>23.13395000582795</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.47318346976573</v>
+        <v>12.99396485556842</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.025734828496073</v>
+        <v>5.904930145939236</v>
       </c>
       <c r="D17">
-        <v>4.701598312135161</v>
+        <v>5.002093861049006</v>
       </c>
       <c r="E17">
-        <v>11.15829660716713</v>
+        <v>12.44599529764738</v>
       </c>
       <c r="F17">
-        <v>21.99964544778241</v>
+        <v>17.89924929741575</v>
       </c>
       <c r="G17">
-        <v>3.610064151843161</v>
+        <v>2.046447150314691</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>18.42197347212308</v>
+        <v>13.17891213744865</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.14481687744902</v>
+        <v>25.02540621310746</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.34033085465072</v>
+        <v>22.65297055306351</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.50913398911797</v>
+        <v>12.91771576757018</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.994478742338644</v>
+        <v>5.840055738315006</v>
       </c>
       <c r="D18">
-        <v>4.687572296832509</v>
+        <v>4.963556515970908</v>
       </c>
       <c r="E18">
-        <v>11.13925381095878</v>
+        <v>12.26056328816877</v>
       </c>
       <c r="F18">
-        <v>22.00569551586355</v>
+        <v>17.7622735801258</v>
       </c>
       <c r="G18">
-        <v>3.610555511332386</v>
+        <v>2.047915134559313</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>18.43529633633969</v>
+        <v>13.11118390877128</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.99991757432527</v>
+        <v>24.73120806421666</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.25025454189005</v>
+        <v>22.37252141201497</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.53049341099513</v>
+        <v>12.87682779210356</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.983830124709621</v>
+        <v>5.817936327904922</v>
       </c>
       <c r="D19">
-        <v>4.682810485034883</v>
+        <v>4.950445000844462</v>
       </c>
       <c r="E19">
-        <v>11.13289402515398</v>
+        <v>12.19753515284697</v>
       </c>
       <c r="F19">
-        <v>22.00789967781164</v>
+        <v>17.71628271104356</v>
       </c>
       <c r="G19">
-        <v>3.610723007010128</v>
+        <v>2.048413398010054</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>18.43991868366058</v>
+        <v>13.08863400443373</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.9505287756007</v>
+        <v>24.63086829097805</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.21968115719621</v>
+        <v>22.27690998659897</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.53784212518951</v>
+        <v>12.86348664944861</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.031488221808456</v>
+        <v>5.916863767509277</v>
       </c>
       <c r="D20">
-        <v>4.704188047530724</v>
+        <v>5.009195986529614</v>
       </c>
       <c r="E20">
-        <v>11.16186258136381</v>
+        <v>12.48019945654995</v>
       </c>
       <c r="F20">
-        <v>21.99859974298326</v>
+        <v>17.92478380228399</v>
       </c>
       <c r="G20">
-        <v>3.609973748511439</v>
+        <v>2.04617603484774</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>18.41956070766695</v>
+        <v>13.19162901057127</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.17147790273918</v>
+        <v>25.07950958101129</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.35696556094975</v>
+        <v>22.70456443811013</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.50523637940279</v>
+        <v>12.9255237366883</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.186956962087285</v>
+        <v>6.23853474399407</v>
       </c>
       <c r="D21">
-        <v>4.775081851587225</v>
+        <v>5.202098381125184</v>
       </c>
       <c r="E21">
-        <v>11.26522702467613</v>
+        <v>13.41343694789765</v>
       </c>
       <c r="F21">
-        <v>21.97822185021489</v>
+        <v>18.65202285335238</v>
       </c>
       <c r="G21">
-        <v>3.607534709760745</v>
+        <v>2.038739083118116</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>18.35894846151973</v>
+        <v>13.56456608493725</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.89064993469334</v>
+        <v>26.53636375665546</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.81256825869584</v>
+        <v>24.09623210458661</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.40385095218583</v>
+        <v>13.16992097344843</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.285013086223886</v>
+        <v>6.440798249812188</v>
       </c>
       <c r="D22">
-        <v>4.820676315165307</v>
+        <v>5.324739728247043</v>
       </c>
       <c r="E22">
-        <v>11.33718720836945</v>
+        <v>14.01173743289885</v>
       </c>
       <c r="F22">
-        <v>21.97304250990285</v>
+        <v>19.14699309229987</v>
       </c>
       <c r="G22">
-        <v>3.605998799259023</v>
+        <v>2.033931983976561</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.32517833308423</v>
+        <v>13.82869417994563</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.3430270651243</v>
+        <v>27.45114092031457</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.10563219275263</v>
+        <v>24.97265117988387</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.34372402363473</v>
+        <v>13.35752758606477</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.233008528259357</v>
+        <v>6.333573782787341</v>
       </c>
       <c r="D23">
-        <v>4.796412071292131</v>
+        <v>5.259602440469643</v>
       </c>
       <c r="E23">
-        <v>11.29838383949758</v>
+        <v>13.69343111669581</v>
       </c>
       <c r="F23">
-        <v>21.97505991871353</v>
+        <v>18.88103107022788</v>
       </c>
       <c r="G23">
-        <v>3.606813240588514</v>
+        <v>2.036493171294298</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>18.34266497066536</v>
+        <v>13.68583748558148</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.10322039633012</v>
+        <v>26.96630508575393</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>16.94967836298325</v>
+        <v>24.5078817369893</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.37525051458621</v>
+        <v>13.25478257348853</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.028888358880152</v>
+        <v>5.911471461097148</v>
       </c>
       <c r="D24">
-        <v>4.703017484961228</v>
+        <v>5.005986329009512</v>
       </c>
       <c r="E24">
-        <v>11.16024884758593</v>
+        <v>12.46474038973342</v>
       </c>
       <c r="F24">
-        <v>21.99906967059261</v>
+        <v>17.91323285679566</v>
       </c>
       <c r="G24">
-        <v>3.61001459870829</v>
+        <v>2.046298582356528</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>18.42064947538222</v>
+        <v>13.18587284990338</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.15943064938044</v>
+        <v>25.05506306178221</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.34944654619854</v>
+        <v>22.68125108438912</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.50699633702373</v>
+        <v>12.92198458620509</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.794022898273671</v>
+        <v>5.421899571029018</v>
       </c>
       <c r="D25">
-        <v>4.599394744720117</v>
+        <v>4.718273361848929</v>
       </c>
       <c r="E25">
-        <v>11.03072672288288</v>
+        <v>11.19242851908577</v>
       </c>
       <c r="F25">
-        <v>22.05964306670847</v>
+        <v>16.95525454004345</v>
       </c>
       <c r="G25">
-        <v>3.613719144873194</v>
+        <v>2.057145142661095</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>18.52959699629218</v>
+        <v>12.73165572085957</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.0681777750676</v>
+        <v>22.83133643932829</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.68505545293823</v>
+        <v>20.56521480281213</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.67512644303569</v>
+        <v>12.67539116479556</v>
       </c>
     </row>
   </sheetData>
